--- a/sample_data/three_monomer_systems/bp-2-27-analysis.xlsx
+++ b/sample_data/three_monomer_systems/bp-2-27-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/three_monomer_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04F013-EEFA-B742-9399-6C5C8D888F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1D1684-60DC-2142-A682-EB5FA8CF2BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1260" windowWidth="28800" windowHeight="16280" xr2:uid="{DEB6D2D9-5330-1D41-9A52-4849C1A14534}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16280" xr2:uid="{DEB6D2D9-5330-1D41-9A52-4849C1A14534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>result:</t>
   </si>
   <si>
-    <t>[2.58563703 2.83448241 1.77955357 3.41667325 0.43133634 1.43854887]</t>
+    <t>[1.02836752 0.01       0.32585111 1.30661458 0.12827558 0.15034467]</t>
   </si>
 </sst>
 </file>
@@ -4718,7 +4718,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
